--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Jack_Sparrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0913802F-F17A-4DFC-86CA-0577B79D4DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B120CE2D-DC50-43C0-92F2-129E307EC4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC94AF59-13C2-45F4-B1C3-DAAEC4AC842C}"/>
+    <workbookView xWindow="28680" yWindow="2175" windowWidth="20640" windowHeight="11160" xr2:uid="{BC94AF59-13C2-45F4-B1C3-DAAEC4AC842C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <r>
       <t>self</t>
@@ -120,6 +120,104 @@
       </rPr>
       <t>._Intake_Motor</t>
     </r>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Spark_Max</t>
+  </si>
+  <si>
+    <t>Talon_FX</t>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>._Climber_Motor</t>
+    </r>
+  </si>
+  <si>
+    <t>Talon_SRX</t>
+  </si>
+  <si>
+    <t>Prefered Motor Type</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Human Readable</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Sticks</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Dpad</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Bumper</t>
+  </si>
+  <si>
+    <t>SRY</t>
+  </si>
+  <si>
+    <t>SLY</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>Prefered Motor Type Human Readable</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>TFX</t>
+  </si>
+  <si>
+    <t>TSRX</t>
   </si>
 </sst>
 </file>
@@ -167,10 +265,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,45 +587,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C5A756-06BF-4704-91F5-0C6E41B5BCD5}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Jack_Sparrow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B120CE2D-DC50-43C0-92F2-129E307EC4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D27B9C-6AC7-4484-879E-9E83192FB8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2175" windowWidth="20640" windowHeight="11160" xr2:uid="{BC94AF59-13C2-45F4-B1C3-DAAEC4AC842C}"/>
   </bookViews>
